--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.15/avg_0.004_scores.xlsx
@@ -49,15 +49,15 @@
     <t>however</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
@@ -73,33 +73,33 @@
     <t>small</t>
   </si>
   <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
@@ -112,24 +112,27 @@
     <t>work</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>favorite</t>
-  </si>
-  <si>
-    <t>classic</t>
   </si>
   <si>
     <t>excellent</t>
@@ -527,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
         <v>51</v>
@@ -596,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.8214285714285714</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.7846153846153846</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6344086021505376</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7378640776699029</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C6">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.46875</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7043010752688172</v>
+        <v>0.7135922330097088</v>
       </c>
       <c r="C7">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D7">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.3385245901639344</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>413</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -846,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6901408450704225</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.3491803278688524</v>
+        <v>0.2812051649928264</v>
       </c>
       <c r="L8">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="M8">
-        <v>426</v>
+        <v>196</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>794</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6621621621621622</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.3012912482065997</v>
+        <v>0.2634854771784232</v>
       </c>
       <c r="L9">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="M9">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>487</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6134453781512605</v>
+        <v>0.6218487394957983</v>
       </c>
       <c r="C10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
-        <v>0.2614107883817428</v>
+        <v>0.1987951807228916</v>
       </c>
       <c r="L10">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>356</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,16 +1017,16 @@
         <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>0.2168674698795181</v>
+        <v>0.1590214067278287</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>130</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,16 +1067,16 @@
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>0.1681957186544343</v>
+        <v>0.07712532865907099</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>272</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5043478260869565</v>
+        <v>0.4898550724637681</v>
       </c>
       <c r="C13">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1114,31 +1114,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13">
-        <v>0.08421052631578947</v>
+        <v>0.04220779220779221</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>1044</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1146,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4761904761904762</v>
+        <v>0.4819277108433735</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D14">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1164,31 +1164,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14">
-        <v>0.03439325113562622</v>
-      </c>
-      <c r="L14">
-        <v>53</v>
-      </c>
-      <c r="M14">
-        <v>53</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1488</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1196,13 +1172,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4337349397590362</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1214,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1248,13 +1224,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3858267716535433</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1266,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>78</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1274,13 +1250,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3820224719101123</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C18">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D18">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1292,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>55</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1300,13 +1276,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.328125</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C19">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1318,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>86</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1326,13 +1302,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2772277227722773</v>
+        <v>0.2734375</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1344,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>146</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1352,13 +1328,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2701421800947867</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1370,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1378,13 +1354,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2319587628865979</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C22">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1396,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>149</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1404,13 +1380,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1839762611275964</v>
+        <v>0.172106824925816</v>
       </c>
       <c r="C23">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D23">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1422,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1430,13 +1406,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.177536231884058</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1448,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1482,25 +1458,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1582278481012658</v>
+        <v>0.1492063492063492</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1508,13 +1484,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1542056074766355</v>
+        <v>0.1365638766519824</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D27">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1526,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>181</v>
+        <v>392</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1534,13 +1510,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1518987341772152</v>
+        <v>0.117816091954023</v>
       </c>
       <c r="C28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1552,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>268</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1560,13 +1536,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1343612334801762</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1578,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>393</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1586,25 +1562,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1037463976945245</v>
+        <v>0.09041095890410959</v>
       </c>
       <c r="C30">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1612,7 +1588,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.08493150684931507</v>
+        <v>0.06904231625835189</v>
       </c>
       <c r="C31">
         <v>31</v>
@@ -1630,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>334</v>
+        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1638,25 +1614,51 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.05445544554455446</v>
+        <v>0.0642504118616145</v>
       </c>
       <c r="C32">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>0.03</v>
+      </c>
+      <c r="F32">
+        <v>0.97</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>0.03802281368821293</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
         <v>35</v>
       </c>
-      <c r="E32">
-        <v>0.06</v>
-      </c>
-      <c r="F32">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32">
-        <v>573</v>
+      <c r="E33">
+        <v>0.14</v>
+      </c>
+      <c r="F33">
+        <v>0.86</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
